--- a/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF_MULTHOPP.xlsx
+++ b/JPADSandBox_v2/out/ATR-72/AERODYNAMIC_AND_STABILITY_TAKE_OFF/Aerodynamic_and_Stability_TAKE_OFF_MULTHOPP.xlsx
@@ -34144,7 +34144,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>-8.7588977949466226E-2</v>
+        <v>-0.131731214347173</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
@@ -34155,7 +34155,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>2.5765938115133079E-2</v>
+        <v>3.1068329591716771E-2</v>
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
@@ -34747,7 +34747,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>2.2949800944605425E-3</v>
+        <v>-1.6511597267353904E-4</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
@@ -34769,7 +34769,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>2.3434891389221293E-3</v>
+        <v>-1.166069282119523E-4</v>
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
@@ -34900,106 +34900,106 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>2.1009439166141957E-3</v>
+        <v>-3.59152150519886E-4</v>
       </c>
       <c r="D22">
-        <v>2.125198438844989E-3</v>
+        <v>-3.3489762828909264E-4</v>
       </c>
       <c r="E22">
-        <v>2.1494529610757824E-3</v>
+        <v>-3.1064310605829928E-4</v>
       </c>
       <c r="F22">
-        <v>2.1737074833065757E-3</v>
+        <v>-2.8638858382750587E-4</v>
       </c>
       <c r="G22">
-        <v>2.1979620055373691E-3</v>
+        <v>-2.6213406159671251E-4</v>
       </c>
       <c r="H22">
-        <v>2.2222165277681625E-3</v>
+        <v>-2.3787953936591915E-4</v>
       </c>
       <c r="I22">
-        <v>2.2464710499989558E-3</v>
+        <v>-2.1362501713512579E-4</v>
       </c>
       <c r="J22">
-        <v>2.2707255722297492E-3</v>
+        <v>-1.893704949043324E-4</v>
       </c>
       <c r="K22">
-        <v>2.2949800944605425E-3</v>
+        <v>-1.6511597267353904E-4</v>
       </c>
       <c r="L22">
-        <v>2.3192346166913359E-3</v>
+        <v>-1.4086145044274568E-4</v>
       </c>
       <c r="M22">
-        <v>2.3434891389221293E-3</v>
+        <v>-1.1660692821195229E-4</v>
       </c>
       <c r="N22">
-        <v>2.3677436611529226E-3</v>
+        <v>-9.2352405981158928E-5</v>
       </c>
       <c r="O22">
-        <v>2.391998183383716E-3</v>
+        <v>-6.8097883750365554E-5</v>
       </c>
       <c r="P22">
-        <v>2.4162527056145093E-3</v>
+        <v>-4.3843361519572193E-5</v>
       </c>
       <c r="Q22">
-        <v>2.4405072278453027E-3</v>
+        <v>-1.9588839288778819E-5</v>
       </c>
       <c r="R22">
-        <v>2.4647617500760961E-3</v>
+        <v>4.6656829420145692E-6</v>
       </c>
       <c r="S22">
-        <v>2.4890162723068894E-3</v>
+        <v>2.892020517280793E-5</v>
       </c>
       <c r="T22">
-        <v>2.5132707945376828E-3</v>
+        <v>5.3174727403601291E-5</v>
       </c>
       <c r="U22">
-        <v>2.5375253167684761E-3</v>
+        <v>7.7429249634394651E-5</v>
       </c>
       <c r="V22">
-        <v>2.5617798389992695E-3</v>
+        <v>1.0168377186518804E-4</v>
       </c>
       <c r="W22">
-        <v>2.5860343612300629E-3</v>
+        <v>1.259382940959814E-4</v>
       </c>
       <c r="X22">
-        <v>2.6102888834608562E-3</v>
+        <v>1.5019281632677476E-4</v>
       </c>
       <c r="Y22">
-        <v>2.6345434056916496E-3</v>
+        <v>1.7444733855756818E-4</v>
       </c>
       <c r="Z22">
-        <v>2.6587979279224429E-3</v>
+        <v>1.9870186078836154E-4</v>
       </c>
       <c r="AA22">
-        <v>2.6830524501532363E-3</v>
+        <v>2.229563830191549E-4</v>
       </c>
       <c r="AB22">
-        <v>2.7073069723840297E-3</v>
+        <v>2.4721090524994823E-4</v>
       </c>
       <c r="AC22">
-        <v>2.731561494614823E-3</v>
+        <v>2.7146542748074159E-4</v>
       </c>
       <c r="AD22">
-        <v>2.7558160168456164E-3</v>
+        <v>2.9571994971153495E-4</v>
       </c>
       <c r="AE22">
-        <v>2.7800705390764098E-3</v>
+        <v>3.1997447194232831E-4</v>
       </c>
       <c r="AF22">
-        <v>2.8043250613072031E-3</v>
+        <v>3.4422899417312178E-4</v>
       </c>
       <c r="AG22">
-        <v>2.8285795835379969E-3</v>
+        <v>3.6848351640391514E-4</v>
       </c>
       <c r="AH22">
-        <v>2.8528341057687898E-3</v>
+        <v>3.927380386347085E-4</v>
       </c>
       <c r="AI22">
-        <v>2.8770886279995836E-3</v>
+        <v>4.1699256086550186E-4</v>
       </c>
       <c r="AJ22">
-        <v>2.9013431502303766E-3</v>
+        <v>4.4124708309629522E-4</v>
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
